--- a/biology/Botanique/Réserve_forestière_de_la_Mone/Réserve_forestière_de_la_Mone.xlsx
+++ b/biology/Botanique/Réserve_forestière_de_la_Mone/Réserve_forestière_de_la_Mone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_foresti%C3%A8re_de_la_Mone</t>
+          <t>Réserve_forestière_de_la_Mone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La réserve forestière de la Mone (Mone River Forest Reserve[1]) est une aire protégée du Cameroun, située dans la région du Sud-Ouest. Elle abrite notamment une espèce menacée de gorilles (Gorilla gorilla diehli).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réserve forestière de la Mone (Mone River Forest Reserve) est une aire protégée du Cameroun, située dans la région du Sud-Ouest. Elle abrite notamment une espèce menacée de gorilles (Gorilla gorilla diehli).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_foresti%C3%A8re_de_la_Mone</t>
+          <t>Réserve_forestière_de_la_Mone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur une superficie de 538 km2, à une altitude comprise entre 110 et 1 200 m, la réserve est située à proximité de la frontière avec le Nigeria, au nord de Mamfé et à environ 6 km au sud-est du parc national de Takamanda[2].
-Elle est traversée par un cours d'eau qui lui donne son nom, le Mone (ou Mawne), un affluent de la Manyu[2] (Cross River). 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur une superficie de 538 km2, à une altitude comprise entre 110 et 1 200 m, la réserve est située à proximité de la frontière avec le Nigeria, au nord de Mamfé et à environ 6 km au sud-est du parc national de Takamanda.
+Elle est traversée par un cours d'eau qui lui donne son nom, le Mone (ou Mawne), un affluent de la Manyu (Cross River). 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_foresti%C3%A8re_de_la_Mone</t>
+          <t>Réserve_forestière_de_la_Mone</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle abrite entre 29 et 42 gorilles dits de la rivière Cross[2], également des chimpanzés[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle abrite entre 29 et 42 gorilles dits de la rivière Cross, également des chimpanzés.
 </t>
         </is>
       </c>
